--- a/ORGANIZADORES.xlsx
+++ b/ORGANIZADORES.xlsx
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1459,13 +1459,13 @@
         <v>22</v>
       </c>
       <c r="F11" s="35">
-        <v>1.1875</v>
+        <v>1.2520833333333334</v>
       </c>
       <c r="G11" s="20">
-        <v>0.7944444444444444</v>
+        <v>0.81874999999999998</v>
       </c>
       <c r="H11" s="21">
-        <v>1.9819444444444445</v>
+        <v>2.0708333333333333</v>
       </c>
       <c r="I11" s="58" t="s">
         <v>6</v>
@@ -2578,10 +2578,10 @@
         <v>1.070138888888889</v>
       </c>
       <c r="G33" s="27">
-        <v>0</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="H33" s="28">
-        <v>1.070138888888889</v>
+        <v>1.4208333333333334</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>6</v>
@@ -2716,10 +2716,10 @@
         <v>0.3125</v>
       </c>
       <c r="G35" s="27">
-        <v>0</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="H35" s="28">
-        <v>0.3125</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>6</v>

--- a/ORGANIZADORES.xlsx
+++ b/ORGANIZADORES.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$9:$X$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$9:$AA$48</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/ORGANIZADORES.xlsx
+++ b/ORGANIZADORES.xlsx
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1515,10 +1515,10 @@
         <v>0.3125</v>
       </c>
       <c r="G12" s="20">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="H12" s="20">
-        <v>0.89583333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="I12" s="58" t="s">
         <v>6</v>

--- a/ORGANIZADORES.xlsx
+++ b/ORGANIZADORES.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="155">
   <si>
     <t>Grupo</t>
   </si>
@@ -492,6 +492,9 @@
   <si>
     <t>Su asistencia fue por ACUDIR a las charlas y se puede encontrar más informacion en el archivo ASISTENCIA</t>
   </si>
+  <si>
+    <t xml:space="preserve">Evidencia </t>
+  </si>
 </sst>
 </file>
 
@@ -500,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -526,12 +529,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -783,20 +780,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,9 +803,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -816,7 +810,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,7 +829,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,10 +860,10 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="46" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,31 +889,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="46" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,7 +921,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1232,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1269,159 +1263,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="S9" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="T9" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="W9" s="17" t="s">
+      <c r="W9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="Y9" s="18" t="s">
+      <c r="Y9" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="Z9" s="18" t="s">
+      <c r="Z9" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="AA9" s="18" t="s">
+      <c r="AA9" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="7" t="str">
-        <f>HYPERLINK("https://trello.com/b/LcJwuPgn/innosoft2017","Evidencia1")</f>
-        <v>Evidencia1</v>
+      <c r="F10" s="21"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="57" t="s">
+        <v>154</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1432,51 +1425,51 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>1</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>1.2520833333333334</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>0.81874999999999998</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>2.0708333333333333</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="58" t="s">
+      <c r="L11" s="57" t="s">
         <v>9</v>
       </c>
       <c r="M11" s="5"/>
@@ -1485,51 +1478,51 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>1</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <v>0.3125</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>0.625</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>0.9375</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="57" t="s">
         <v>9</v>
       </c>
       <c r="M12" s="5"/>
@@ -1538,45 +1531,45 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>1</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="54">
         <v>1</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>0.35069444444444442</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="54">
         <v>1.3506944444444444</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="57" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="5"/>
@@ -1587,39 +1580,39 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <v>0.9506944444444444</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>1.409027777777778</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1648,39 +1641,39 @@
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>1</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="33">
         <v>0.96666666666666667</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <v>1.425</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1701,43 +1694,43 @@
       <c r="N15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>1</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <v>0.41736111111111113</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <v>0.87569444444444444</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1766,744 +1759,744 @@
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>1</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>0.4826388888888889</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>0.81874999999999998</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>1.3013888888888889</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>1</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <v>0.50347222222222221</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>0.7909722222222223</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>1.2944444444444445</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>1</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>0.44513888888888892</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>0.80138888888888893</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>1.2465277777777779</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>1</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="19">
         <v>0.56597222222222221</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <v>0.82500000000000007</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>1.3909722222222223</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>1</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>1.0034722222222221</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>0.87430555555555556</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>1.877777777777778</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>1</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>0.42777777777777781</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>0.81944444444444453</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>1.2472222222222222</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>1</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <v>0.64236111111111105</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>0.76944444444444438</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <v>1.4118055555555555</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>1</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="19">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="19">
         <v>0.83888888888888891</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>1.3805555555555555</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>1</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>0.75555555555555554</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <v>1.5888888888888888</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>1</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>0.86805555555555547</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>0.69444444444444453</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <v>1.5625</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>1</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <v>0.52430555555555558</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <v>0.78472222222222221</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <v>1.3090277777777779</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>1</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="19">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <v>0.86319444444444438</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="20">
         <v>1.6965277777777779</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>1</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>0.49374999999999997</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <v>0.8666666666666667</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <v>1.3604166666666666</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="19">
         <v>0.76666666666666661</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>1.3499999999999999</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>1</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="19">
         <v>0.63541666666666663</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <v>0.71736111111111101</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <v>1.3527777777777779</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="31">
+      <c r="A32" s="30">
         <v>1</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <v>0.92708333333333337</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="31">
         <v>0.77569444444444446</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="32">
         <v>1.7027777777777777</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -2556,31 +2549,31 @@
       </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
-      <c r="AA32" s="8"/>
+      <c r="AA32" s="7"/>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <v>1</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>1.070138888888889</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="26">
         <v>0.35069444444444442</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="27">
         <v>1.4208333333333334</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -2631,31 +2624,31 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
-      <c r="AA33" s="8"/>
+      <c r="AA33" s="7"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>1</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="26">
         <v>0.875</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="27">
         <v>1.2083333333333333</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -2694,31 +2687,31 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="8"/>
+      <c r="AA34" s="7"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="25">
+      <c r="A35" s="24">
         <v>1</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="26">
         <v>0.3125</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="26">
         <v>0.25347222222222221</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="27">
         <v>0.56597222222222221</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -2743,73 +2736,73 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
-      <c r="AA35" s="8"/>
+      <c r="AA35" s="7"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="25">
+      <c r="A36" s="24">
         <v>1</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="28">
         <v>1.0173611111111112</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="25">
         <v>0.40277777777777773</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="27">
         <v>1.3784722222222223</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q36" s="11" t="s">
+      <c r="Q36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="R36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S36" s="11" t="s">
+      <c r="S36" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T36" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="V36" s="11" t="s">
+      <c r="V36" s="10" t="s">
         <v>108</v>
       </c>
       <c r="W36" s="6"/>
@@ -2819,70 +2812,70 @@
       <c r="AA36" s="6"/>
     </row>
     <row r="37" spans="1:27">
-      <c r="A37" s="25">
+      <c r="A37" s="24">
         <v>1</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="28">
         <v>1.6354166666666667</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="25">
         <v>0.30555555555555552</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="27">
         <v>1.9409722222222223</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R37" s="11" t="s">
+      <c r="R37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S37" s="11" t="s">
+      <c r="S37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T37" s="11" t="s">
+      <c r="T37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U37" s="11" t="s">
+      <c r="U37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="V37" s="11" t="s">
+      <c r="V37" s="10" t="s">
         <v>108</v>
       </c>
       <c r="W37" s="6"/>
@@ -2892,46 +2885,46 @@
       <c r="AA37" s="6"/>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="25">
+      <c r="A38" s="24">
         <v>1</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="29">
         <v>0.80902777777777779</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="25">
         <v>0.4201388888888889</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="27">
         <v>1.2291666666666667</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="10" t="s">
         <v>11</v>
       </c>
       <c r="O38" s="6"/>
@@ -2949,49 +2942,49 @@
       <c r="AA38" s="6"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="25">
+      <c r="A39" s="24">
         <v>1</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="29">
         <v>0.98125000000000007</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="25">
         <v>0.3888888888888889</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="27">
         <v>1.3701388888888888</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="P39" s="6"/>
@@ -3008,58 +3001,58 @@
       <c r="AA39" s="6"/>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <v>1</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="29">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="25">
         <v>0.38541666666666669</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="27">
         <v>1.1770833333333333</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="N40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="11" t="s">
+      <c r="O40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="P40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="11" t="s">
+      <c r="Q40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="R40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="S40" s="6"/>
@@ -3073,40 +3066,40 @@
       <c r="AA40" s="6"/>
     </row>
     <row r="41" spans="1:27">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>1</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <v>0.8125</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="25">
         <v>0.3923611111111111</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="27">
         <v>1.2048611111111112</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="10" t="s">
         <v>9</v>
       </c>
       <c r="M41" s="6"/>
@@ -3126,52 +3119,52 @@
       <c r="AA41" s="6"/>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <v>1</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="29">
         <v>0.23958333333333334</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="25">
         <v>0.3263888888888889</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="27">
         <v>0.56597222222222221</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="10" t="s">
         <v>13</v>
       </c>
       <c r="Q42" s="6"/>
@@ -3187,64 +3180,64 @@
       <c r="AA42" s="6"/>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="25">
+      <c r="A43" s="24">
         <v>1</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="29">
         <v>0.92708333333333337</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="25">
         <v>0.37152777777777773</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="27">
         <v>1.2569444444444444</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="N43" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O43" s="11" t="s">
+      <c r="O43" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="P43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="R43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S43" s="11" t="s">
+      <c r="S43" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T43" s="11" t="s">
+      <c r="T43" s="10" t="s">
         <v>106</v>
       </c>
       <c r="U43" s="6"/>
@@ -3256,49 +3249,49 @@
       <c r="AA43" s="6"/>
     </row>
     <row r="44" spans="1:27">
-      <c r="A44" s="25">
+      <c r="A44" s="24">
         <v>1</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="29">
         <v>0.47569444444444442</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="25">
         <v>0.32291666666666669</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="27">
         <v>0.79861111111111116</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="N44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O44" s="11" t="s">
+      <c r="O44" s="10" t="s">
         <v>12</v>
       </c>
       <c r="P44" s="6"/>
@@ -3315,123 +3308,123 @@
       <c r="AA44" s="6"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="25">
+      <c r="A45" s="24">
         <v>1</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="29">
         <v>0.81597222222222221</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <v>0.4375</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="27">
         <v>1.2534722222222221</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="Q45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="R45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S45" s="11" t="s">
+      <c r="S45" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T45" s="11" t="s">
+      <c r="T45" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U45" s="11" t="s">
+      <c r="U45" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="V45" s="11" t="s">
+      <c r="V45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="W45" s="11" t="s">
+      <c r="W45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="X45" s="11" t="s">
+      <c r="X45" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="Y45" s="11" t="s">
+      <c r="Y45" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="Z45" s="11" t="s">
+      <c r="Z45" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="AA45" s="11" t="s">
+      <c r="AA45" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="25">
+      <c r="A46" s="24">
         <v>1</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="29">
         <v>0.54513888888888895</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="25">
         <v>0.37152777777777773</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="27">
         <v>0.91666666666666663</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="10" t="s">
         <v>9</v>
       </c>
       <c r="M46" s="6"/>
@@ -3451,40 +3444,40 @@
       <c r="AA46" s="6"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>1</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="29">
         <v>0.73263888888888884</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="25">
         <v>0.35069444444444442</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="27">
         <v>1.0833333333333333</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="10" t="s">
         <v>9</v>
       </c>
       <c r="M47" s="6"/>
@@ -3504,52 +3497,52 @@
       <c r="AA47" s="6"/>
     </row>
     <row r="48" spans="1:27">
-      <c r="A48" s="25">
+      <c r="A48" s="24">
         <v>1</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="29">
         <v>0.66319444444444442</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="25">
         <v>0.40277777777777773</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="27">
         <v>1.0243055555555556</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="P48" s="10" t="s">
         <v>13</v>
       </c>
       <c r="Q48" s="6"/>
@@ -22812,8 +22805,9 @@
     <hyperlink ref="J12" r:id="rId204"/>
     <hyperlink ref="K12" r:id="rId205"/>
     <hyperlink ref="L12" r:id="rId206"/>
+    <hyperlink ref="I10" r:id="rId207"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId207"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId208"/>
 </worksheet>
 </file>